--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934BC5EC-D659-4DDF-8E4A-6B1777FE15B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1912DB6-4ADE-4968-8013-743150A6EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1134,6 +1134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1358,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,6 +1457,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1778,13 +1784,14 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.19921875" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="10" max="10" width="9.69921875" customWidth="1"/>
@@ -1823,7 +1830,9 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="32">
+        <v>44509</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B5" s="2">
@@ -2898,7 +2907,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1912DB6-4ADE-4968-8013-743150A6EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D46523-4C52-4816-BD42-6EC45A902D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1443,6 +1443,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,9 +1460,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1806,11 +1806,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
@@ -1830,7 +1830,7 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="27">
         <v>44509</v>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
@@ -1850,7 +1850,9 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="27">
+        <v>44511</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B7" s="2">
@@ -1859,7 +1861,7 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
@@ -1868,7 +1870,7 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
@@ -1877,7 +1879,9 @@
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="27">
+        <v>44512</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
@@ -1920,21 +1924,21 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="F15" s="27" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="J15" s="27" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="J15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
@@ -2171,16 +2175,16 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="F27" s="27" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
@@ -2296,16 +2300,16 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="F37" s="27" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" s="14" t="s">
@@ -2557,16 +2561,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="F56" s="27" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="F56" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B57" s="14" t="s">
@@ -2739,11 +2743,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B71" s="14" t="s">
@@ -2931,16 +2935,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="15" t="s">
@@ -3097,16 +3101,16 @@
       <c r="D14" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="F16" s="30" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="F16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="15" t="s">
@@ -3198,16 +3202,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="F24" s="30" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="F24" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" s="15" t="s">
@@ -3477,11 +3481,11 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B52" s="15" t="s">
@@ -3649,11 +3653,11 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B72" s="15" t="s">
@@ -3835,21 +3839,21 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="J2" s="31" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="J2" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
@@ -4229,16 +4233,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="F24" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" s="21" t="s">
@@ -4400,11 +4404,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B41" s="21" t="s">
@@ -4549,11 +4553,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B59" s="21" t="s">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D46523-4C52-4816-BD42-6EC45A902D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD3975-C8F7-4266-AE05-4A9E0C01655D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1890,7 +1890,9 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="27">
+        <v>44513</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B11" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD3975-C8F7-4266-AE05-4A9E0C01655D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E06882-2E82-4309-AA87-A580444149AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1901,7 +1901,9 @@
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="27">
+        <v>44513</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E06882-2E82-4309-AA87-A580444149AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DBE7D4-7EB9-45F0-9458-168492D017CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1841,7 +1841,9 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="27">
+        <v>44514</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B6" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DBE7D4-7EB9-45F0-9458-168492D017CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007AC3C7-A603-48C0-966D-22AAA4C5A5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1863,7 +1863,9 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27">
+        <v>44515</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
@@ -1872,7 +1874,9 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="27">
+        <v>44515</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
@@ -1914,7 +1918,9 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="27">
+        <v>44515</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="M13" s="12"/>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007AC3C7-A603-48C0-966D-22AAA4C5A5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C329CE60-4B59-4FD5-B681-38CE8A2984AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1988,7 +1988,9 @@
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="27">
+        <v>44517</v>
+      </c>
       <c r="F17" s="2">
         <v>15649</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C329CE60-4B59-4FD5-B681-38CE8A2984AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503EEB1-6EA0-4D27-A454-E0ACEE9C981E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2013,7 +2013,9 @@
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="27">
+        <v>44523</v>
+      </c>
       <c r="F18" s="2">
         <v>15650</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503EEB1-6EA0-4D27-A454-E0ACEE9C981E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA0483-8784-4370-8D16-0984DDEDD5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2038,7 +2038,9 @@
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="27">
+        <v>44524</v>
+      </c>
       <c r="F19" s="2">
         <v>15651</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA0483-8784-4370-8D16-0984DDEDD5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7517221-6A2A-4FDA-A7EF-07AC740A2388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB14CC-8ABA-4B8B-A76E-400F1F796DB0}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2063,7 +2063,9 @@
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="27">
+        <v>44525</v>
+      </c>
       <c r="F20" s="2">
         <v>15652</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7517221-6A2A-4FDA-A7EF-07AC740A2388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BF4B1A-5641-43FE-BEDD-3BE6C08BD45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB14CC-8ABA-4B8B-A76E-400F1F796DB0}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2140,7 +2140,9 @@
       <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="27">
+        <v>44526</v>
+      </c>
       <c r="F23" s="2">
         <v>15656</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BF4B1A-5641-43FE-BEDD-3BE6C08BD45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F84820-C416-408E-9B37-678ECBFADC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB14CC-8ABA-4B8B-A76E-400F1F796DB0}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2088,7 +2088,9 @@
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="27">
+        <v>44528</v>
+      </c>
       <c r="F21" s="2">
         <v>15654</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F84820-C416-408E-9B37-678ECBFADC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0771F55-9C5A-4522-ABA3-AF956417355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2116,7 +2116,9 @@
       <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="27">
+        <v>44530</v>
+      </c>
       <c r="F22" s="2">
         <v>15655</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0771F55-9C5A-4522-ABA3-AF956417355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2130D96B-4E81-4376-9CE2-DB77C104058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB14CC-8ABA-4B8B-A76E-400F1F796DB0}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1794,6 +1794,7 @@
     <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.69921875" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
@@ -1997,7 +1998,9 @@
       <c r="G17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="27">
+        <v>44532</v>
+      </c>
       <c r="J17" s="2">
         <v>9095</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2130D96B-4E81-4376-9CE2-DB77C104058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15319DFA-2A4F-4808-B066-7270FE277E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2025,7 +2025,9 @@
       <c r="G18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="27">
+        <v>44533</v>
+      </c>
       <c r="J18" s="2">
         <v>1759</v>
       </c>
@@ -2050,7 +2052,9 @@
       <c r="G19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="27">
+        <v>44533</v>
+      </c>
       <c r="J19" s="2">
         <v>14501</v>
       </c>
@@ -2075,7 +2079,9 @@
       <c r="G20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="27">
+        <v>44533</v>
+      </c>
       <c r="J20" s="2">
         <v>14889</v>
       </c>
@@ -2100,7 +2106,9 @@
       <c r="G21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="27">
+        <v>44533</v>
+      </c>
       <c r="J21" s="2">
         <v>15661</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15319DFA-2A4F-4808-B066-7270FE277E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECEDC65-1067-45E3-948A-F84368F35768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2136,7 +2136,9 @@
       <c r="G22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="27">
+        <v>44534</v>
+      </c>
       <c r="J22" s="2">
         <v>2529</v>
       </c>
@@ -2164,7 +2166,9 @@
       <c r="G23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="27">
+        <v>44534</v>
+      </c>
       <c r="J23" s="2">
         <v>1248</v>
       </c>
@@ -2186,7 +2190,9 @@
       <c r="G24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="27">
+        <v>44534</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="7"/>
       <c r="L24" s="5"/>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECEDC65-1067-45E3-948A-F84368F35768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53D76C6-6379-4FB2-B73D-2A2D4CD5DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2207,7 +2207,9 @@
       <c r="G25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="27">
+        <v>44535</v>
+      </c>
       <c r="J25" s="8"/>
       <c r="K25" s="11"/>
       <c r="L25" s="5"/>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53D76C6-6379-4FB2-B73D-2A2D4CD5DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896AD9C0-690B-497F-992E-23FF855BC775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1797,6 +1797,7 @@
     <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.69921875" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="18" max="18" width="8.8984375" customWidth="1"/>
   </cols>
@@ -2007,7 +2008,9 @@
       <c r="K17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="27">
+        <v>44559</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896AD9C0-690B-497F-992E-23FF855BC775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF116A7-B128-4636-A71A-68E388252122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2037,7 +2037,9 @@
       <c r="K18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="27">
+        <v>44560</v>
+      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF116A7-B128-4636-A71A-68E388252122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4879F-1E73-4062-9000-E31F1AFFA10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2066,7 +2066,9 @@
       <c r="K19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="27">
+        <v>44561</v>
+      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4879F-1E73-4062-9000-E31F1AFFA10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F925D6-5C11-4EA3-9D00-A8760F15C0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2095,7 +2095,9 @@
       <c r="K20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="27">
+        <v>44562</v>
+      </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F925D6-5C11-4EA3-9D00-A8760F15C0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4617E94-B9CD-4305-9699-F71FBD7AD2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2124,7 +2124,9 @@
       <c r="K21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="27">
+        <v>44563</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
       <c r="O21" s="5"/>
@@ -2154,7 +2156,9 @@
       <c r="K22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="27">
+        <v>44563</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="7"/>
       <c r="O22" s="5"/>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prepare-coding-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4617E94-B9CD-4305-9699-F71FBD7AD2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A9D9F-00EE-4C13-89C9-AB4A060DF18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2188,7 +2188,9 @@
       <c r="K23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="27">
+        <v>44565</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="11"/>
       <c r="O23" s="5"/>
